--- a/Data/maridajes.xlsx
+++ b/Data/maridajes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elena\Desktop\Adalab\Ejercicios-Adalab\modulo-4\ejercicios-pair\Pair_PowerBI\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\Desktop\Adalab\module_4\pair-programming\pair-power-bi-carla-elena-berta\Pair_PowerBI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{023215AE-F2FC-483C-9DE0-143600149487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73296CEA-6765-49AB-84D6-6D46D0277FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB6BF13D-DFAD-44F9-AC5D-AAC3852AEF4A}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FB6BF13D-DFAD-44F9-AC5D-AAC3852AEF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="maridajes" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
-    <t>TYPES</t>
-  </si>
-  <si>
-    <t>CATEGORIES</t>
-  </si>
-  <si>
-    <t>FOOD</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -102,22 +93,23 @@
   </si>
   <si>
     <t>Macarons, tartas ligeras, tiramisú.</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Food</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -133,27 +125,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -165,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -186,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -505,160 +482,161 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="69.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>